--- a/workload.xlsx
+++ b/workload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Courtroom_Scheduling_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743F3C5C-0BF7-4337-B3FB-604DE543A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E919BFA-8CAF-4BEB-84A0-E6DF78D94358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FD40C9E-D9B4-4A49-9DE9-8096C326FE4F}"/>
+    <workbookView xWindow="4032" yWindow="3108" windowWidth="17280" windowHeight="8964" xr2:uid="{4FD40C9E-D9B4-4A49-9DE9-8096C326FE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +163,7 @@
     </font>
     <font>
       <sz val="9.6"/>
-      <color rgb="FFECECEC"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFECECEC"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -183,7 +177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF212121"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -260,10 +254,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58061776-5641-40DE-A706-E544BEE86D37}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +610,7 @@
     <col min="5" max="5" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,210 +626,223 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
